--- a/Doc/01功能表角色.xlsx
+++ b/Doc/01功能表角色.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vulcan\GitHub\Blazor-Xamarin-Full-Stack-HOL\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E55EE-BB9B-406F-90E4-465A5AFA95CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB596B27-D952-4B87-BB4C-C5EF424908C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2630" yWindow="2130" windowWidth="19200" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能表角色" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>啟用</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>匯入角色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>mdi-home</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -138,10 +134,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>變更密碼New</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>微軟</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -154,19 +146,43 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>mdi-chart-histogram</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>mdi-google</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.microsoft.com/zh-tw/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.google.com/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>開發者角色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統管理員角色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者專用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnlyAdministrator</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdi-test-tube</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdi-hand-pointing-up</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權測試子功能表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1135,22 +1151,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="12.08984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.90625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="17.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="12.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.36328125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
@@ -1163,295 +1178,751 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+      <c r="A2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>70</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>80</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>90</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="C14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>40</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>60</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>70</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>90</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
         <v>30</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
         <v>40</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>50</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="C25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>60</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>60</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>90</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>100</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>110</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
+      <c r="I26" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{D0624806-F32C-4C3C-8267-5C753545AF50}"/>
-    <hyperlink ref="G10" r:id="rId2" xr:uid="{5FDDB24D-C031-44F6-A051-725449D18ABE}"/>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{03F15077-AEF6-4037-A3D2-3B0C627025EC}"/>
+    <hyperlink ref="H19" r:id="rId2" xr:uid="{D83AC1FA-05BE-45C9-AF87-4A6EEFEDEF3B}"/>
+    <hyperlink ref="H26" r:id="rId3" xr:uid="{5C88497E-AEA5-4599-9DC4-A7E3F2744F81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Doc/01功能表角色.xlsx
+++ b/Doc/01功能表角色.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vulcan\GitHub\Blazor-Xamarin-Full-Stack-HOL\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB596B27-D952-4B87-BB4C-C5EF424908C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA3177-B5A5-42D8-BEB2-6E59747623AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="1660" windowWidth="19200" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能表角色" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>啟用</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -86,46 +86,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Order</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnlyUser</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>變更密碼</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>訂單管理</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品管理</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般使用者使用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>mdi-head-heart</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>mdi-gift</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mdi-shopping</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>mdi-form-textbox-password</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -138,22 +106,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Google</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>mdi-microsoft</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>mdi-google</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.google.com/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>開發者角色</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -162,27 +118,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>管理者專用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnlyAdministrator</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mdi-test-tube</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mdi-hand-pointing-up</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>授權測試子功能表</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.microsoft.com/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>簽核流程政策</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統資料管理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdi-star-box</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1151,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1201,7 +1153,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1230,10 +1182,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
@@ -1242,16 +1194,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="b">
         <v>0</v>
@@ -1259,7 +1208,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1268,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -1288,28 +1237,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="b">
         <v>0</v>
@@ -1317,39 +1266,39 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>90</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>50</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="I6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
@@ -1358,13 +1307,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I7" s="2" t="b">
         <v>0</v>
@@ -1372,28 +1324,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="b">
         <v>0</v>
@@ -1401,28 +1353,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I9" s="2" t="b">
         <v>0</v>
@@ -1430,10 +1379,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="b">
         <v>1</v>
@@ -1445,42 +1394,42 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2" t="b">
         <v>0</v>
@@ -1488,10 +1437,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="b">
         <v>1</v>
@@ -1503,24 +1452,24 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="b">
         <v>1</v>
@@ -1532,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2" t="b">
         <v>0</v>
@@ -1546,383 +1495,40 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>40</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>50</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>60</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>70</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>80</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>90</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>30</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>40</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>50</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>60</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>90</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1" xr:uid="{03F15077-AEF6-4037-A3D2-3B0C627025EC}"/>
-    <hyperlink ref="H19" r:id="rId2" xr:uid="{D83AC1FA-05BE-45C9-AF87-4A6EEFEDEF3B}"/>
-    <hyperlink ref="H26" r:id="rId3" xr:uid="{5C88497E-AEA5-4599-9DC4-A7E3F2744F81}"/>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{03F15077-AEF6-4037-A3D2-3B0C627025EC}"/>
+    <hyperlink ref="H12" r:id="rId2" xr:uid="{D83AC1FA-05BE-45C9-AF87-4A6EEFEDEF3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Doc/01功能表角色.xlsx
+++ b/Doc/01功能表角色.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vulcan\GitHub\Blazor-Xamarin-Full-Stack-HOL\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA3177-B5A5-42D8-BEB2-6E59747623AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89138EF2-96F0-4715-8658-C55E389A6528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1660" windowWidth="19200" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能表角色" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>啟用</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -135,6 +135,26 @@
   </si>
   <si>
     <t>mdi-star-box</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons 圖示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdi-family-tree</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pictogrammers.github.io/@mdi/font/5.8.55/</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,6 +767,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1103,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1117,7 +1143,7 @@
     <col min="5" max="5" width="12.08984375" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="2" customWidth="1"/>
     <col min="7" max="7" width="31.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.36328125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
@@ -1144,7 +1170,7 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -1173,7 +1199,7 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="2" t="b">
@@ -1197,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
@@ -1228,7 +1254,7 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="2" t="b">
@@ -1252,12 +1278,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="2" t="b">
@@ -1269,25 +1295,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="I6" s="2" t="b">
         <v>1</v>
@@ -1315,7 +1341,7 @@
       <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="2" t="b">
@@ -1344,7 +1370,7 @@
       <c r="G8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="2" t="b">
@@ -1368,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>28</v>
@@ -1394,12 +1420,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="2" t="b">
@@ -1423,12 +1449,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I11" s="2" t="b">
@@ -1452,12 +1478,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="2" t="b">
@@ -1486,7 +1512,7 @@
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="2" t="b">
@@ -1515,20 +1541,45 @@
       <c r="G14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="2" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{03F15077-AEF6-4037-A3D2-3B0C627025EC}"/>
-    <hyperlink ref="H12" r:id="rId2" xr:uid="{D83AC1FA-05BE-45C9-AF87-4A6EEFEDEF3B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/01功能表角色.xlsx
+++ b/Doc/01功能表角色.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vulcan\GitHub\Blazor-Xamarin-Full-Stack-HOL\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89138EF2-96F0-4715-8658-C55E389A6528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDC924A-97FC-4436-94CD-D90067269390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,6 +328,15 @@
       <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -627,7 +636,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,8 +763,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,8 +786,11 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -801,6 +816,7 @@
     <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="超連結" xfId="42" builtinId="8"/>
     <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -1132,7 +1148,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1290,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1312,7 +1328,7 @@
       <c r="G6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="2" t="b">
@@ -1579,7 +1595,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{ADC8FFD6-FD16-474C-B610-14247FEB96CC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>